--- a/ExternalData/QuestionTestData.xlsx
+++ b/ExternalData/QuestionTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
   <si>
     <t>Akila</t>
   </si>
@@ -131,16 +131,33 @@
   </si>
   <si>
     <t>Theekshana#$123</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>akila.theekshana@gmail.com</t>
+  </si>
+  <si>
+    <t>Akila.Theekshana#@gmail,com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,16 +180,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -697,27 +717,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -725,17 +749,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -743,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -751,7 +775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -759,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -767,7 +791,41 @@
         <v>35</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ExternalData/QuestionTestData.xlsx
+++ b/ExternalData/QuestionTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>Akila</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>Akila.Theekshana#@gmail,com</t>
+  </si>
+  <si>
+    <t>Akila.Theekshana@gmail.com</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>71-5465877</t>
   </si>
 </sst>
 </file>
@@ -184,12 +193,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -717,10 +729,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,9 +740,10 @@
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -740,8 +753,11 @@
       <c r="C1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -749,17 +765,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -767,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -775,7 +791,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -783,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -791,7 +807,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -802,7 +818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -813,18 +829,61 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <v>715465977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1"/>
     <hyperlink ref="C10" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId3"/>
+    <hyperlink ref="C13" r:id="rId4"/>
+    <hyperlink ref="C14" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExternalData/QuestionTestData.xlsx
+++ b/ExternalData/QuestionTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
   <si>
     <t>Akila</t>
   </si>
@@ -489,14 +489,14 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" customWidth="1"/>
+    <col min="1" max="2" width="27.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" customWidth="1"/>
+    <col min="4" max="4" width="49.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -532,7 +532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -543,7 +543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -557,7 +557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -585,7 +585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -599,7 +599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -613,7 +613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -627,7 +627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -641,7 +641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -655,7 +655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -682,13 +682,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -696,17 +696,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -714,7 +714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -729,21 +729,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -757,7 +757,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -765,17 +765,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -791,7 +791,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -807,7 +807,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -818,7 +818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -829,7 +829,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -837,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -851,7 +851,7 @@
         <v>715465977</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -865,7 +865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -876,6 +876,20 @@
         <v>39</v>
       </c>
       <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>716543877</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -884,6 +898,7 @@
     <hyperlink ref="C12" r:id="rId3"/>
     <hyperlink ref="C13" r:id="rId4"/>
     <hyperlink ref="C14" r:id="rId5"/>
+    <hyperlink ref="C15" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExternalData/QuestionTestData.xlsx
+++ b/ExternalData/QuestionTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
   <si>
     <t>Akila</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>71-5465877</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -489,14 +498,14 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" customWidth="1"/>
-    <col min="4" max="4" width="49.81640625" customWidth="1"/>
+    <col min="1" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -521,7 +530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -532,7 +541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -543,7 +552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -557,7 +566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -571,7 +580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -585,7 +594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -599,7 +608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -613,7 +622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -627,7 +636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -641,7 +650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -655,7 +664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -682,13 +691,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -696,17 +705,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -714,7 +723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -729,21 +738,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.7265625" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -756,8 +768,17 @@
       <c r="D1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -765,17 +786,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -783,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -791,7 +812,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -799,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -807,7 +828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -818,7 +839,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -829,7 +850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -837,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -851,7 +872,7 @@
         <v>715465977</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -865,7 +886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -877,7 +898,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -889,6 +910,66 @@
       </c>
       <c r="D15">
         <v>716543877</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>716543878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>716543878</v>
+      </c>
+      <c r="E17">
+        <v>121</v>
+      </c>
+      <c r="F17">
+        <v>500</v>
+      </c>
+      <c r="G17">
+        <v>15782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>716543878</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
@@ -899,6 +980,9 @@
     <hyperlink ref="C13" r:id="rId4"/>
     <hyperlink ref="C14" r:id="rId5"/>
     <hyperlink ref="C15" r:id="rId6"/>
+    <hyperlink ref="C16" r:id="rId7"/>
+    <hyperlink ref="C17" r:id="rId8"/>
+    <hyperlink ref="C18" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExternalData/QuestionTestData.xlsx
+++ b/ExternalData/QuestionTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="48">
   <si>
     <t>Akila</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Akila.Theekshana</t>
+  </si>
+  <si>
+    <t>AkilaT</t>
   </si>
 </sst>
 </file>
@@ -738,10 +747,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,9 +762,10 @@
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -777,8 +787,11 @@
       <c r="G1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -786,17 +799,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -804,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -812,7 +825,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -820,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -828,7 +841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -839,7 +852,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -850,7 +863,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -858,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -872,7 +885,7 @@
         <v>715465977</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -886,7 +899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -898,7 +911,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -912,7 +925,7 @@
         <v>716543877</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -926,7 +939,7 @@
         <v>716543878</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -949,7 +962,7 @@
         <v>15782</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -970,6 +983,104 @@
       </c>
       <c r="G18">
         <v>2010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>716543878</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <v>716543878</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>716543878</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>2010</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>716543878</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>2010</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -983,6 +1094,10 @@
     <hyperlink ref="C16" r:id="rId7"/>
     <hyperlink ref="C17" r:id="rId8"/>
     <hyperlink ref="C18" r:id="rId9"/>
+    <hyperlink ref="C19" r:id="rId10"/>
+    <hyperlink ref="C20" r:id="rId11"/>
+    <hyperlink ref="C21" r:id="rId12"/>
+    <hyperlink ref="C22" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExternalData/QuestionTestData.xlsx
+++ b/ExternalData/QuestionTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="50">
   <si>
     <t>Akila</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>AkilaT</t>
+  </si>
+  <si>
+    <t>Akila+*#$T</t>
+  </si>
+  <si>
+    <t>AkilaTheekshana</t>
   </si>
 </sst>
 </file>
@@ -507,14 +513,14 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" customWidth="1"/>
+    <col min="1" max="2" width="27.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" customWidth="1"/>
+    <col min="4" max="4" width="49.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -539,7 +545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -550,7 +556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -561,7 +567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -575,7 +581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -589,7 +595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -603,7 +609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -617,7 +623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -631,7 +637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -645,7 +651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -659,7 +665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -673,7 +679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -700,13 +706,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -714,17 +720,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -732,7 +738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -747,25 +753,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -791,7 +797,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -799,17 +805,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -817,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -825,7 +831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -833,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -841,7 +847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -852,7 +858,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -863,7 +869,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -871,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -885,7 +891,7 @@
         <v>715465977</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -899,7 +905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -911,7 +917,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -925,7 +931,7 @@
         <v>716543877</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -939,7 +945,7 @@
         <v>716543878</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -962,7 +968,7 @@
         <v>15782</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -985,7 +991,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1014,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1081,6 +1087,58 @@
       </c>
       <c r="H22" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>716543878</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>2010</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24">
+        <v>716543878</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>2010</v>
+      </c>
+      <c r="H24" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1098,6 +1156,8 @@
     <hyperlink ref="C20" r:id="rId11"/>
     <hyperlink ref="C21" r:id="rId12"/>
     <hyperlink ref="C22" r:id="rId13"/>
+    <hyperlink ref="C23" r:id="rId14"/>
+    <hyperlink ref="C24" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExternalData/QuestionTestData.xlsx
+++ b/ExternalData/QuestionTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="51">
   <si>
     <t>Akila</t>
   </si>
@@ -172,7 +172,10 @@
     <t>Akila+*#$T</t>
   </si>
   <si>
-    <t>AkilaTheekshana</t>
+    <t>aatheekshana</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -753,10 +756,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,9 +772,10 @@
     <col min="6" max="6" width="18.1796875" customWidth="1"/>
     <col min="7" max="7" width="18.453125" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -796,8 +800,11 @@
       <c r="H1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -805,17 +812,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -823,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -831,7 +838,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -839,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -847,7 +854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -858,7 +865,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -869,7 +876,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -877,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -891,7 +898,7 @@
         <v>715465977</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -905,7 +912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -917,7 +924,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -931,7 +938,7 @@
         <v>716543877</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1138,6 +1145,32 @@
         <v>2010</v>
       </c>
       <c r="H24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25">
+        <v>716543878</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>2010</v>
+      </c>
+      <c r="H25" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1158,6 +1191,7 @@
     <hyperlink ref="C22" r:id="rId13"/>
     <hyperlink ref="C23" r:id="rId14"/>
     <hyperlink ref="C24" r:id="rId15"/>
+    <hyperlink ref="C25" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
